--- a/DRM_Output/4_TaskA_Comparison.xlsx
+++ b/DRM_Output/4_TaskA_Comparison.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.0490096587278</v>
+        <v>597.9794107203954</v>
       </c>
       <c r="C2" t="n">
-        <v>3729.038920024464</v>
+        <v>3291.73919251063</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1126.690063476562</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1153.490014648437</v>
+        <v>4069.60009765625</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.2507950287722</v>
+        <v>-597.9794107203954</v>
       </c>
       <c r="C4" t="n">
-        <v>195.360982319286</v>
+        <v>777.8609051456197</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.7378782033765</v>
+        <v>-100</v>
       </c>
       <c r="C5" t="n">
-        <v>5.238909716662446</v>
+        <v>23.63069671240692</v>
       </c>
     </row>
   </sheetData>

--- a/DRM_Output/4_TaskA_Comparison.xlsx
+++ b/DRM_Output/4_TaskA_Comparison.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>597.9794107203954</v>
+        <v>210.0995972016092</v>
       </c>
       <c r="C2" t="n">
-        <v>3291.73919251063</v>
+        <v>3754.926304466932</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-597.9794107203954</v>
+        <v>-210.0995972016092</v>
       </c>
       <c r="C4" t="n">
-        <v>777.8609051456197</v>
+        <v>314.6737931893176</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>-100</v>
       </c>
       <c r="C5" t="n">
-        <v>23.63069671240692</v>
+        <v>8.380292119581032</v>
       </c>
     </row>
   </sheetData>

--- a/DRM_Output/4_TaskA_Comparison.xlsx
+++ b/DRM_Output/4_TaskA_Comparison.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.0995972016092</v>
+        <v>210.0996068252052</v>
       </c>
       <c r="C2" t="n">
-        <v>3754.926304466932</v>
+        <v>3754.926314090528</v>
       </c>
     </row>
     <row r="3">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-210.0995972016092</v>
+        <v>-210.0996068252052</v>
       </c>
       <c r="C4" t="n">
-        <v>314.6737931893176</v>
+        <v>314.6737835657218</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>-100</v>
       </c>
       <c r="C5" t="n">
-        <v>8.380292119581032</v>
+        <v>8.380291841810434</v>
       </c>
     </row>
   </sheetData>
